--- a/spliced/walkingToRunning/2023-03-30_14-23-33/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-23-33/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-8.089916832306811</v>
+        <v>-7.313242021728997</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.794766384012551</v>
+        <v>-8.175233658622219</v>
       </c>
       <c r="E2" t="n">
-        <v>4.25856484151354</v>
+        <v>2.331058922935893</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1337572634220123</v>
+        <v>0.6115283966064453</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.411193370819092</v>
+        <v>-0.0169776529073715</v>
       </c>
       <c r="H2" t="n">
-        <v>0.369513601064682</v>
+        <v>-0.1087901294231414</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-8.562996188799541</v>
+        <v>-8.089916832306811</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.62869268538905</v>
+        <v>-7.794766384012551</v>
       </c>
       <c r="E3" t="n">
-        <v>4.021127045154572</v>
+        <v>4.25856484151354</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1215067282319068</v>
+        <v>0.1337572634220123</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0643819198012352</v>
+        <v>-4.411193370819092</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.924533367156982</v>
+        <v>0.369513601064682</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-8.465083991779997</v>
+        <v>-8.562996188799541</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.572577813092403</v>
+        <v>-5.62869268538905</v>
       </c>
       <c r="E4" t="n">
-        <v>3.310186512330003</v>
+        <v>4.021127045154572</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1854225993156433</v>
+        <v>0.1215067282319068</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3285675048828125</v>
+        <v>-0.0643819198012352</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.531450867652893</v>
+        <v>-1.924533367156982</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-7.515201767285651</v>
+        <v>-8.465083991779997</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.813795685768134</v>
+        <v>-5.572577813092403</v>
       </c>
       <c r="E5" t="n">
-        <v>2.080139199892673</v>
+        <v>3.310186512330003</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6855642795562744</v>
+        <v>0.1854225993156433</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6710500121116638</v>
+        <v>-0.3285675048828125</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.072854518890381</v>
+        <v>-1.531450867652893</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.889640840829573</v>
+        <v>-7.515201767285651</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.183977889079673</v>
+        <v>-5.813795685768134</v>
       </c>
       <c r="E6" t="n">
-        <v>3.298035799288292</v>
+        <v>2.080139199892673</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6323010325431824</v>
+        <v>0.6855642795562744</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.309925377368927</v>
+        <v>-0.6710500121116638</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.8337026238441467</v>
+        <v>-1.072854518890381</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.032402010524974</v>
+        <v>-3.889640840829573</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.917088676901407</v>
+        <v>-6.183977889079673</v>
       </c>
       <c r="E7" t="n">
-        <v>5.917996553813698</v>
+        <v>3.298035799288292</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1245693638920784</v>
+        <v>0.6323010325431824</v>
       </c>
       <c r="G7" t="n">
-        <v>1.384910345077515</v>
+        <v>-0.309925377368927</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5511412024497986</v>
+        <v>-0.8337026238441467</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.8607274410771413</v>
+        <v>-2.032402010524974</v>
       </c>
       <c r="D8" t="n">
-        <v>-18.58178931591555</v>
+        <v>-7.917088676901407</v>
       </c>
       <c r="E8" t="n">
-        <v>10.12933701159906</v>
+        <v>5.917996553813698</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.438040494918823</v>
+        <v>-0.1245693638920784</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.918724000453949</v>
+        <v>1.384910345077515</v>
       </c>
       <c r="H8" t="n">
-        <v>3.847602128982544</v>
+        <v>0.5511412024497986</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-3.271800985523277</v>
+        <v>-0.8607274410771413</v>
       </c>
       <c r="D9" t="n">
-        <v>-15.36747401835878</v>
+        <v>-18.58178931591555</v>
       </c>
       <c r="E9" t="n">
-        <v>6.096988180104466</v>
+        <v>10.12933701159906</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.082026958465576</v>
+        <v>-1.438040494918823</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2300305366516113</v>
+        <v>-0.918724000453949</v>
       </c>
       <c r="H9" t="n">
-        <v>3.824166297912598</v>
+        <v>3.847602128982544</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-14.65323523914104</v>
+        <v>-3.271800985523277</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.466919653555957</v>
+        <v>-15.36747401835878</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7585973178638932</v>
+        <v>6.096988180104466</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2960769534111023</v>
+        <v>-4.082026958465576</v>
       </c>
       <c r="G10" t="n">
-        <v>3.580953121185303</v>
+        <v>-0.2300305366516113</v>
       </c>
       <c r="H10" t="n">
-        <v>3.93761682510376</v>
+        <v>3.824166297912598</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-22.51664300058401</v>
+        <v>-14.65323523914104</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.749673447188126</v>
+        <v>-4.466919653555957</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.398741133072749</v>
+        <v>-0.7585973178638932</v>
       </c>
       <c r="F11" t="n">
-        <v>1.565472722053528</v>
+        <v>-0.2960769534111023</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.121656894683838</v>
+        <v>3.580953121185303</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.981808423995972</v>
+        <v>3.93761682510376</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-18.3769370060341</v>
+        <v>-22.51664300058401</v>
       </c>
       <c r="D12" t="n">
-        <v>-24.21302471908869</v>
+        <v>-7.749673447188126</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6640657630621334</v>
+        <v>-5.398741133072749</v>
       </c>
       <c r="F12" t="n">
-        <v>3.818506956100464</v>
+        <v>1.565472722053528</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.21461820602417</v>
+        <v>-1.121656894683838</v>
       </c>
       <c r="H12" t="n">
-        <v>-4.720852375030518</v>
+        <v>-2.981808423995972</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-11.91456683944254</v>
+        <v>-18.3769370060341</v>
       </c>
       <c r="D13" t="n">
-        <v>-23.90803286608531</v>
+        <v>-24.21302471908869</v>
       </c>
       <c r="E13" t="n">
-        <v>10.49638333040125</v>
+        <v>0.6640657630621334</v>
       </c>
       <c r="F13" t="n">
-        <v>3.237405300140381</v>
+        <v>3.818506956100464</v>
       </c>
       <c r="G13" t="n">
-        <v>8.023105621337891</v>
+        <v>-2.21461820602417</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.110422134399414</v>
+        <v>-4.720852375030518</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-4.779002170936772</v>
+        <v>-11.91456683944254</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.17006232224267</v>
+        <v>-23.90803286608531</v>
       </c>
       <c r="E14" t="n">
-        <v>11.643902759926</v>
+        <v>10.49638333040125</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.717672348022461</v>
+        <v>3.237405300140381</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.550425887107849</v>
+        <v>8.023105621337891</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.160240173339844</v>
+        <v>-2.110422134399414</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.3725347098182305</v>
+        <v>-4.779002170936772</v>
       </c>
       <c r="D15" t="n">
-        <v>-30.31529621750734</v>
+        <v>-4.17006232224267</v>
       </c>
       <c r="E15" t="n">
-        <v>8.55354468495236</v>
+        <v>11.643902759926</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.741924047470093</v>
+        <v>-1.717672348022461</v>
       </c>
       <c r="G15" t="n">
-        <v>1.798233032226562</v>
+        <v>-1.550425887107849</v>
       </c>
       <c r="H15" t="n">
-        <v>3.91737699508667</v>
+        <v>-3.160240173339844</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-15.74266366397642</v>
+        <v>0.3725347098182305</v>
       </c>
       <c r="D16" t="n">
-        <v>-20.48928019579699</v>
+        <v>-30.31529621750734</v>
       </c>
       <c r="E16" t="n">
-        <v>1.483265680425281</v>
+        <v>8.55354468495236</v>
       </c>
       <c r="F16" t="n">
-        <v>-11.71304893493652</v>
+        <v>-2.741924047470093</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7414906620979309</v>
+        <v>1.798233032226562</v>
       </c>
       <c r="H16" t="n">
-        <v>4.010587692260742</v>
+        <v>3.91737699508667</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-19.33448225376665</v>
+        <v>-15.74266366397642</v>
       </c>
       <c r="D17" t="n">
-        <v>2.267985530928218</v>
+        <v>-20.48928019579699</v>
       </c>
       <c r="E17" t="n">
-        <v>5.825747468892169</v>
+        <v>1.483265680425281</v>
       </c>
       <c r="F17" t="n">
-        <v>3.221958875656128</v>
+        <v>-11.71304893493652</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.187023162841797</v>
+        <v>0.7414906620979309</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.072072505950928</v>
+        <v>4.010587692260742</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.347560611425691</v>
+        <v>-19.33448225376665</v>
       </c>
       <c r="D18" t="n">
-        <v>-14.70038807625862</v>
+        <v>2.267985530928218</v>
       </c>
       <c r="E18" t="n">
-        <v>10.01127913886427</v>
+        <v>5.825747468892169</v>
       </c>
       <c r="F18" t="n">
-        <v>4.388423442840576</v>
+        <v>3.221958875656128</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.836483240127564</v>
+        <v>-8.187023162841797</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.924250066280365</v>
+        <v>-2.072072505950928</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7.625993616440701</v>
+        <v>-1.347560611425691</v>
       </c>
       <c r="D19" t="n">
-        <v>-13.20338362104757</v>
+        <v>-14.70038807625862</v>
       </c>
       <c r="E19" t="n">
-        <v>14.98549651398371</v>
+        <v>10.01127913886427</v>
       </c>
       <c r="F19" t="n">
-        <v>8.48330020904541</v>
+        <v>4.388423442840576</v>
       </c>
       <c r="G19" t="n">
-        <v>6.056095123291016</v>
+        <v>-3.836483240127564</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.273656845092773</v>
+        <v>-0.924250066280365</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.7890216976987219</v>
+        <v>7.625993616440701</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.09984105241075003</v>
+        <v>-13.20338362104757</v>
       </c>
       <c r="E20" t="n">
-        <v>12.88112398222394</v>
+        <v>14.98549651398371</v>
       </c>
       <c r="F20" t="n">
-        <v>3.490405559539795</v>
+        <v>8.48330020904541</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0469382144510746</v>
+        <v>6.056095123291016</v>
       </c>
       <c r="H20" t="n">
-        <v>-4.09820556640625</v>
+        <v>-1.273656845092773</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-0.7890216976987219</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.09984105241075003</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12.88112398222394</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.490405559539795</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0469382144510746</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-4.09820556640625</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>-7.435094737539091</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>-33.73446517364671</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E22" t="n">
         <v>13.88054672058896</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>-5.684184551239014</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>-0.3173822164535522</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>3.06037163734436</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>7.333738565444815</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-26.17261409759575</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7.461308479309277</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-11.22835350036621</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-15.27582550048828</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1.236372590065002</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3924275192565041</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8.770900960062418</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-10.52958610946054</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.94928503036499</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-15.6870174407959</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.060655117034912</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-27.41900163538287</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-21.30080885045613</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.806023990406281</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.654456377029419</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-6.942261695861816</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.724813222885132</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-26.291865657358</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-17.62141748035735</v>
+      </c>
+      <c r="E26" t="n">
+        <v>14.67751483356255</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6.618554592132568</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.984438896179199</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-4.156262397766113</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-12.81046040852863</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7.074593609454595</v>
+      </c>
+      <c r="E27" t="n">
+        <v>12.13140960768156</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-4.189085960388184</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.281579732894898</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.08831787109375</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-5.703531527051739</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-11.14156565946689</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10.64924546316558</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-3.292665958404541</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.869073033332825</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.439073085784912</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>5.73159689061778</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-12.49397951013913</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.91989309647508</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-4.698282241821289</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.67050313949585</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1.46966552734375</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-10.9989599106356</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.90863177355609</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-9.010537198945535</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.039232015609741</v>
+      </c>
+      <c r="G30" t="n">
+        <v>13.21467208862305</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-9.619471549987791</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9.205162721520956</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-32.48499697329918</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-12.15963486129167</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.204416275024414</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-5.015731334686279</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.8006793856620789</v>
       </c>
     </row>
   </sheetData>
